--- a/biology/Botanique/Mitragyna/Mitragyna.xlsx
+++ b/biology/Botanique/Mitragyna/Mitragyna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mitragyna est un genre d'arbres de la famille des Rubiaceae. Certains membres de ce genre contiennent des alcaloïdes aux propriétés analgésiques et antipaludique[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mitragyna est un genre d'arbres de la famille des Rubiaceae. Certains membres de ce genre contiennent des alcaloïdes aux propriétés analgésiques et antipaludique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (4 novembre 2015)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (4 novembre 2015) :
 Mitragyna diversifolia (Wall. ex G.Don) Havil.
 Mitragyna hirsuta Havil.
 Mitragyna inermis (Willd.) Kuntze
@@ -524,10 +538,10 @@
 Mitragyna speciosa (Korth.) Havil.
 Mitragyna stipulosa (DC.) Kuntze
 Mitragyna tubulosa (Arn.) Kuntze
-Selon GRIN            (4 novembre 2015)[4] :
+Selon GRIN            (4 novembre 2015) :
 Mitragyna parvifolia (Roxb.) Korth.
 Mitragyna speciosa Korth.
-Selon World Checklist of Selected Plant Families (WCSP)  (4 novembre 2015)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (4 novembre 2015) :
 Mitragyna diversifolia (Wall. ex G.Don) Havil., J. Linn. Soc. (1897)
 Mitragyna hirsuta Havil., J. Linn. Soc. (1897)
 Mitragyna inermis (Willd.) Kuntze (1891)
@@ -540,7 +554,7 @@
 Mitragyna speciosa (Korth.) Havil., J. Linn. Soc. (1897)
 Mitragyna stipulosa (DC.) Kuntze (1891)
 Mitragyna tubulosa (Arn.) Kuntze (1891)
-Selon NCBI  (4 novembre 2015)[6] :
+Selon NCBI  (4 novembre 2015) :
 Mitragyna diversifolia
 Mitragyna hirsuta
 Mitragyna inermis
@@ -548,7 +562,7 @@
 Mitragyna rotundifolia
 Mitragyna speciosa
 Mitragyna tubulosa
-Selon The Plant List            (4 novembre 2015)[7] :
+Selon The Plant List            (4 novembre 2015) :
 Mitragyna diversifolia (Wall. ex G.Don) Havil.
 Mitragyna hirsuta Havil.
 Mitragyna inermis (Willd.) Kuntze
@@ -556,7 +570,7 @@
 Mitragyna rotundifolia (Roxb.) Kuntze
 Mitragyna speciosa (Korth.) Havil.
 Mitragyna tubulosa (Arn.) Kuntze
-Selon Tropicos                                           (4 novembre 2015)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (4 novembre 2015) (Attention liste brute contenant possiblement des synonymes) :
 Mitragyna africana Korth.
 Mitragyna brunonis (Wall. ex G. Don) Craib
 Mitragyna chevalieri K. Krause
